--- a/Feature-Analysis/Resize Feature/s_01_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_01_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.52776620374</v>
+        <v>738157.52776620374</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.52850694442</v>
+        <v>738157.52850694442</v>
       </c>
       <c r="C3" s="0">
         <v>63.999994844198227</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.52884259261</v>
+        <v>738157.52884259261</v>
       </c>
       <c r="C4" s="0">
         <v>92.999998480081558</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.52920138894</v>
+        <v>738157.52920138894</v>
       </c>
       <c r="C5" s="0">
         <v>124.00000132620335</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.52954861114</v>
+        <v>738157.52954861114</v>
       </c>
       <c r="C6" s="0">
         <v>153.999999538064</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.52989583334</v>
+        <v>738157.52989583334</v>
       </c>
       <c r="C7" s="0">
         <v>183.99999774992466</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.53020833328</v>
+        <v>738157.53020833328</v>
       </c>
       <c r="C8" s="0">
         <v>210.99999211728573</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.53056712961</v>
+        <v>738157.53056712961</v>
       </c>
       <c r="C9" s="0">
         <v>241.99999496340752</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.53092592594</v>
+        <v>738157.53092592594</v>
       </c>
       <c r="C10" s="0">
         <v>272.9999978095293</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.53128472227</v>
+        <v>738157.53128472227</v>
       </c>
       <c r="C11" s="0">
         <v>304.00000065565109</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.53162037034</v>
+        <v>738157.53162037034</v>
       </c>
       <c r="C12" s="0">
         <v>332.99999423325062</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.53196759254</v>
+        <v>738157.53196759254</v>
       </c>
       <c r="C13" s="0">
         <v>362.99999244511127</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.532337963</v>
+        <v>738157.532337963</v>
       </c>
       <c r="C14" s="0">
         <v>394.99999992549419</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.53269675921</v>
+        <v>738157.53269675921</v>
       </c>
       <c r="C15" s="0">
         <v>425.99999271333218</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.53300925926</v>
+        <v>738157.53300925926</v>
       </c>
       <c r="C16" s="0">
         <v>452.99999713897705</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.53336805559</v>
+        <v>738157.53336805559</v>
       </c>
       <c r="C17" s="0">
         <v>483.99999998509884</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.53405092587</v>
+        <v>738157.53405092587</v>
       </c>
       <c r="C18" s="0">
         <v>542.99999177455902</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.53439814819</v>
+        <v>738157.53439814819</v>
       </c>
       <c r="C19" s="0">
         <v>573.00000004470348</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.53474537039</v>
+        <v>738157.53474537039</v>
       </c>
       <c r="C20" s="0">
         <v>602.99999825656414</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.53509259259</v>
+        <v>738157.53509259259</v>
       </c>
       <c r="C21" s="0">
         <v>632.9999964684248</v>
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.5353240741</v>
+        <v>738157.5353240741</v>
       </c>
       <c r="C22" s="0">
         <v>652.99999862909317</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.53569444444</v>
+        <v>738157.53569444444</v>
       </c>
       <c r="C23" s="0">
         <v>684.99999605119228</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.53604166664</v>
+        <v>738157.53604166664</v>
       </c>
       <c r="C24" s="0">
         <v>714.99999426305294</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.53637731483</v>
+        <v>738157.53637731483</v>
       </c>
       <c r="C25" s="0">
         <v>743.99999789893627</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.53672453703</v>
+        <v>738157.53672453703</v>
       </c>
       <c r="C26" s="0">
         <v>773.99999611079693</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.53707175923</v>
+        <v>738157.53707175923</v>
       </c>
       <c r="C27" s="0">
         <v>803.99999432265759</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.53778935189</v>
+        <v>738157.53778935189</v>
       </c>
       <c r="C28" s="0">
         <v>866.00000001490116</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.53810185182</v>
+        <v>738157.53810185182</v>
       </c>
       <c r="C29" s="0">
         <v>892.99999438226223</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.53846064815</v>
+        <v>738157.53846064815</v>
       </c>
       <c r="C30" s="0">
         <v>923.99999722838402</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.53881944448</v>
+        <v>738157.53881944448</v>
       </c>
       <c r="C31" s="0">
         <v>955.00000007450581</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.53916666668</v>
+        <v>738157.53916666668</v>
       </c>
       <c r="C32" s="0">
         <v>984.99999828636646</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.53951388889</v>
+        <v>738157.53951388889</v>
       </c>
       <c r="C33" s="0">
         <v>1014.9999964982271</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.53987268521</v>
+        <v>738157.53987268521</v>
       </c>
       <c r="C34" s="0">
         <v>1045.9999993443489</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.54018518515</v>
+        <v>738157.54018518515</v>
       </c>
       <c r="C35" s="0">
         <v>1072.99999371171</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.54053240735</v>
+        <v>738157.54053240735</v>
       </c>
       <c r="C36" s="0">
         <v>1102.9999919235706</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.54089120368</v>
+        <v>738157.54089120368</v>
       </c>
       <c r="C37" s="0">
         <v>1133.9999947696924</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.54126157402</v>
+        <v>738157.54126157402</v>
       </c>
       <c r="C38" s="0">
         <v>1165.9999921917915</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.5415856482</v>
+        <v>738157.5415856482</v>
       </c>
       <c r="C39" s="0">
         <v>1194.0000012516975</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.5419328704</v>
+        <v>738157.5419328704</v>
       </c>
       <c r="C40" s="0">
         <v>1223.9999994635582</v>
